--- a/server/LISTAS/mi/SOGA REVESTIDA.xlsx
+++ b/server/LISTAS/mi/SOGA REVESTIDA.xlsx
@@ -917,7 +917,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="36" t="n">
-        <v>45289</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="25" t="n"/>
       <c r="F1" s="25" t="n"/>

--- a/server/LISTAS/mi/SOGA REVESTIDA.xlsx
+++ b/server/LISTAS/mi/SOGA REVESTIDA.xlsx
@@ -917,7 +917,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="36" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="25" t="n"/>
       <c r="F1" s="25" t="n"/>
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="D14" s="16" t="n">
-        <v>43.2</v>
+        <v>94.12</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" s="35">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="D15" s="17" t="n">
-        <v>61.8</v>
+        <v>134.55</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" s="35">
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="D16" s="17" t="n">
-        <v>88.40000000000001</v>
+        <v>192.4</v>
       </c>
     </row>
     <row r="17" ht="23.25" customHeight="1" s="35" thickBot="1">
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="D17" s="18" t="n">
-        <v>154</v>
+        <v>331.5</v>
       </c>
     </row>
     <row r="18" ht="20.25" customHeight="1" s="35">
@@ -1157,10 +1157,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A33:D33"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A33:D33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/SOGA REVESTIDA.xlsx
+++ b/server/LISTAS/mi/SOGA REVESTIDA.xlsx
@@ -917,7 +917,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="36" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="25" t="n"/>
       <c r="F1" s="25" t="n"/>

--- a/server/LISTAS/mi/SOGA REVESTIDA.xlsx
+++ b/server/LISTAS/mi/SOGA REVESTIDA.xlsx
@@ -917,7 +917,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="36" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
       <c r="E1" s="25" t="n"/>
       <c r="F1" s="25" t="n"/>
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="D14" s="16" t="n">
-        <v>94.12</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" s="35">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="D15" s="17" t="n">
-        <v>134.55</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" s="35">
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="D16" s="17" t="n">
-        <v>192.4</v>
+        <v>88.40000000000001</v>
       </c>
     </row>
     <row r="17" ht="23.25" customHeight="1" s="35" thickBot="1">
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="D17" s="18" t="n">
-        <v>331.5</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" ht="20.25" customHeight="1" s="35">
@@ -1157,10 +1157,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
     <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/SOGA REVESTIDA.xlsx
+++ b/server/LISTAS/mi/SOGA REVESTIDA.xlsx
@@ -917,7 +917,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="36" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="25" t="n"/>
       <c r="F1" s="25" t="n"/>
@@ -1157,10 +1157,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A33:D33"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A33:D33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/SOGA REVESTIDA.xlsx
+++ b/server/LISTAS/mi/SOGA REVESTIDA.xlsx
@@ -917,7 +917,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="36" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="25" t="n"/>
       <c r="F1" s="25" t="n"/>
@@ -1157,10 +1157,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
     <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/SOGA REVESTIDA.xlsx
+++ b/server/LISTAS/mi/SOGA REVESTIDA.xlsx
@@ -917,7 +917,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="36" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="25" t="n"/>
       <c r="F1" s="25" t="n"/>
@@ -1157,10 +1157,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A33:D33"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A33:D33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/SOGA REVESTIDA.xlsx
+++ b/server/LISTAS/mi/SOGA REVESTIDA.xlsx
@@ -917,7 +917,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="36" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="25" t="n"/>
       <c r="F1" s="25" t="n"/>
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="D14" s="16" t="n">
-        <v>43.2</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" s="35">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="D15" s="17" t="n">
-        <v>61.8</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" s="35">
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="D16" s="17" t="n">
-        <v>88.40000000000001</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" ht="23.25" customHeight="1" s="35" thickBot="1">
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="D17" s="18" t="n">
-        <v>154</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" ht="20.25" customHeight="1" s="35">
@@ -1157,10 +1157,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
     <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
